--- a/jpcore-r4/feature/swg2-add-microbiology/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -93,7 +93,8 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討  
+This material contains content from LOINC (http://loinc.org). LOINC is copyright © 1995-2020, Regenstrief Institute, Inc. and the Logical Observation Identifiers Names and Codes (LOINC) Committee and is available at no cost under the license at http://loinc.org/license. LOINC® is a registered United States trademark of Regenstrief Institute, Inc</t>
   </si>
   <si>
     <t>Immutable</t>
